--- a/Nemeske/037p20/CD/037p20Szolgalmi jog koord.xlsx
+++ b/Nemeske/037p20/CD/037p20Szolgalmi jog koord.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="93">
   <si>
     <t>Pontkód</t>
   </si>
@@ -41,171 +41,21 @@
     <t>1</t>
   </si>
   <si>
-    <t>553204.280</t>
-  </si>
-  <si>
-    <t>75568.558</t>
-  </si>
-  <si>
     <t>3496</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>552835.396</t>
-  </si>
-  <si>
-    <t>75511.120</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
-    <t>552732.294</t>
-  </si>
-  <si>
-    <t>74679.091</t>
-  </si>
-  <si>
     <t>101</t>
   </si>
   <si>
-    <t>552980.186</t>
-  </si>
-  <si>
-    <t>75543.785</t>
-  </si>
-  <si>
     <t>5216</t>
   </si>
   <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>552826.400</t>
-  </si>
-  <si>
-    <t>75519.840</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>552727.103</t>
-  </si>
-  <si>
-    <t>74718.522</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>552746.999</t>
-  </si>
-  <si>
-    <t>74716.424</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>552844.390</t>
-  </si>
-  <si>
-    <t>75502.400</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>552984.186</t>
-  </si>
-  <si>
-    <t>75524.169</t>
-  </si>
-  <si>
-    <t>552960.040</t>
-  </si>
-  <si>
-    <t>75600.510</t>
-  </si>
-  <si>
-    <t>552833.540</t>
-  </si>
-  <si>
-    <t>75614.820</t>
-  </si>
-  <si>
-    <t>552744.240</t>
-  </si>
-  <si>
-    <t>74909.280</t>
-  </si>
-  <si>
-    <t>553086.660</t>
-  </si>
-  <si>
-    <t>74872.970</t>
-  </si>
-  <si>
-    <t>553098.230</t>
-  </si>
-  <si>
-    <t>74864.320</t>
-  </si>
-  <si>
-    <t>553122.760</t>
-  </si>
-  <si>
-    <t>74773.740</t>
-  </si>
-  <si>
-    <t>553270.370</t>
-  </si>
-  <si>
-    <t>74729.210</t>
-  </si>
-  <si>
-    <t>553280.850</t>
-  </si>
-  <si>
-    <t>74710.470</t>
-  </si>
-  <si>
-    <t>553275.620</t>
-  </si>
-  <si>
-    <t>74671.040</t>
-  </si>
-  <si>
-    <t>552725.920</t>
-  </si>
-  <si>
-    <t>74723.180</t>
-  </si>
-  <si>
-    <t>552720.640</t>
-  </si>
-  <si>
-    <t>74740.050</t>
-  </si>
-  <si>
-    <t>552740.130</t>
-  </si>
-  <si>
-    <t>74902.900</t>
-  </si>
-  <si>
-    <t>553098.220</t>
-  </si>
-  <si>
-    <t>74864.300</t>
-  </si>
-  <si>
-    <t>552740.150</t>
-  </si>
-  <si>
     <t>szántás széle</t>
   </si>
   <si>
@@ -213,6 +63,240 @@
   </si>
   <si>
     <t>a  037/20 helyrajzi számú földrészletre vonatkozó szolgalmi jog a tervezett HHE-Nemeske-2-HHE-K-3 gyűjtőállomás közös CH vezeték, tervezett HHE-Nemeske-2-HHE-K-3 gyűjtőállomás közös mérő CH vezeték engedélyezése iránti kérelemhez</t>
+  </si>
+  <si>
+    <t>545795.223</t>
+  </si>
+  <si>
+    <t>75178.757</t>
+  </si>
+  <si>
+    <t>545771.547</t>
+  </si>
+  <si>
+    <t>75218.019</t>
+  </si>
+  <si>
+    <t>545901.966</t>
+  </si>
+  <si>
+    <t>75740.970</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>545834.409</t>
+  </si>
+  <si>
+    <t>75934.151</t>
+  </si>
+  <si>
+    <t>545767.392</t>
+  </si>
+  <si>
+    <t>75205.545</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>545782.900</t>
+  </si>
+  <si>
+    <t>75219.730</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>545787.397</t>
+  </si>
+  <si>
+    <t>75212.272</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>545654.210</t>
+  </si>
+  <si>
+    <t>75144.410</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>545644.010</t>
+  </si>
+  <si>
+    <t>75154.970</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>545495.840</t>
+  </si>
+  <si>
+    <t>75596.330</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>545500.500</t>
+  </si>
+  <si>
+    <t>75607.510</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>545619.960</t>
+  </si>
+  <si>
+    <t>75659.630</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>545744.170</t>
+  </si>
+  <si>
+    <t>75708.500</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>545896.810</t>
+  </si>
+  <si>
+    <t>75764.130</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>545931.490</t>
+  </si>
+  <si>
+    <t>75767.240</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>546047.820</t>
+  </si>
+  <si>
+    <t>75320.080</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>546042.650</t>
+  </si>
+  <si>
+    <t>75305.540</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>545934.590</t>
+  </si>
+  <si>
+    <t>75264.760</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>545822.590</t>
+  </si>
+  <si>
+    <t>75225.870</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>545784.810</t>
+  </si>
+  <si>
+    <t>75209.750</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>545691.460</t>
+  </si>
+  <si>
+    <t>75164.540</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>75144.390</t>
+  </si>
+  <si>
+    <t>20001</t>
+  </si>
+  <si>
+    <t>545644.000</t>
+  </si>
+  <si>
+    <t>20004</t>
+  </si>
+  <si>
+    <t>545619.970</t>
+  </si>
+  <si>
+    <t>75659.610</t>
+  </si>
+  <si>
+    <t>20005</t>
+  </si>
+  <si>
+    <t>545744.160</t>
+  </si>
+  <si>
+    <t>75708.490</t>
+  </si>
+  <si>
+    <t>20011</t>
+  </si>
+  <si>
+    <t>545822.630</t>
+  </si>
+  <si>
+    <t>75225.860</t>
+  </si>
+  <si>
+    <t>20012</t>
+  </si>
+  <si>
+    <t>75209.740</t>
+  </si>
+  <si>
+    <t>20013</t>
+  </si>
+  <si>
+    <t>545691.480</t>
+  </si>
+  <si>
+    <t>75164.530</t>
+  </si>
+  <si>
+    <t>ell.pont</t>
   </si>
 </sst>
 </file>
@@ -667,10 +751,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB95"/>
+  <dimension ref="A1:AE95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H3"/>
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
@@ -685,19 +769,19 @@
     <col min="8" max="8" width="8.42578125" style="12" customWidth="1"/>
     <col min="9" max="9" width="9.42578125" style="14" customWidth="1"/>
     <col min="10" max="10" width="13.5703125" style="12" customWidth="1"/>
-    <col min="11" max="14" width="12" style="24" customWidth="1"/>
-    <col min="15" max="19" width="11.28515625" style="15" customWidth="1"/>
-    <col min="20" max="21" width="10" style="15" customWidth="1"/>
-    <col min="22" max="22" width="14.28515625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" style="8" customWidth="1"/>
-    <col min="24" max="24" width="6.7109375" style="8" customWidth="1"/>
-    <col min="25" max="25" width="8.140625" style="15" customWidth="1"/>
-    <col min="26" max="26" width="9.7109375" style="8" customWidth="1"/>
+    <col min="11" max="16" width="12" style="24" customWidth="1"/>
+    <col min="17" max="22" width="11.28515625" style="15" customWidth="1"/>
+    <col min="23" max="24" width="10" style="15" customWidth="1"/>
+    <col min="25" max="25" width="14.28515625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="13.28515625" style="8" customWidth="1"/>
     <col min="27" max="27" width="6.7109375" style="8" customWidth="1"/>
-    <col min="28" max="28" width="9.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.140625" style="15" customWidth="1"/>
+    <col min="29" max="29" width="9.7109375" style="8" customWidth="1"/>
+    <col min="30" max="30" width="6.7109375" style="8" customWidth="1"/>
+    <col min="31" max="31" width="9.5703125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="4" customFormat="1" ht="14.25" customHeight="1">
+    <row r="1" spans="1:31" s="4" customFormat="1" ht="14.25" customHeight="1">
       <c r="A1" s="5"/>
       <c r="B1" s="10" t="s">
         <v>1</v>
@@ -720,22 +804,25 @@
       <c r="L1" s="24"/>
       <c r="M1" s="24"/>
       <c r="N1" s="24"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
       <c r="Q1" s="15"/>
       <c r="R1" s="15"/>
       <c r="S1" s="15"/>
       <c r="T1" s="15"/>
       <c r="U1" s="15"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="1"/>
       <c r="Z1" s="8"/>
       <c r="AA1" s="8"/>
-      <c r="AB1" s="9"/>
-    </row>
-    <row r="2" spans="1:28" s="2" customFormat="1" ht="9" customHeight="1">
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="9"/>
+    </row>
+    <row r="2" spans="1:31" s="2" customFormat="1" ht="9" customHeight="1">
       <c r="B2" s="12"/>
       <c r="C2" s="7"/>
       <c r="D2" s="13"/>
@@ -749,24 +836,27 @@
       <c r="L2" s="24"/>
       <c r="M2" s="24"/>
       <c r="N2" s="24"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
       <c r="Q2" s="15"/>
       <c r="R2" s="15"/>
       <c r="S2" s="15"/>
       <c r="T2" s="15"/>
       <c r="U2" s="15"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="1"/>
       <c r="Z2" s="8"/>
       <c r="AA2" s="8"/>
-      <c r="AB2" s="9"/>
-    </row>
-    <row r="3" spans="1:28" s="3" customFormat="1" ht="111" customHeight="1">
+      <c r="AB2" s="15"/>
+      <c r="AC2" s="8"/>
+      <c r="AD2" s="8"/>
+      <c r="AE2" s="9"/>
+    </row>
+    <row r="3" spans="1:31" s="3" customFormat="1" ht="111" customHeight="1">
       <c r="B3" s="26" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
@@ -775,29 +865,32 @@
       <c r="G3" s="27"/>
       <c r="H3" s="27"/>
       <c r="I3" s="7" t="s">
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="J3" s="12"/>
       <c r="K3" s="24"/>
       <c r="L3" s="24"/>
       <c r="M3" s="24"/>
       <c r="N3" s="24"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
       <c r="Q3" s="15"/>
       <c r="R3" s="15"/>
       <c r="S3" s="15"/>
       <c r="T3" s="15"/>
       <c r="U3" s="15"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8"/>
-      <c r="Y3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="1"/>
       <c r="Z3" s="8"/>
       <c r="AA3" s="8"/>
-      <c r="AB3" s="9"/>
-    </row>
-    <row r="4" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1">
+      <c r="AB3" s="15"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
+      <c r="AE3" s="9"/>
+    </row>
+    <row r="4" spans="1:31" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
@@ -811,36 +904,39 @@
       <c r="L4" s="24"/>
       <c r="M4" s="24"/>
       <c r="N4" s="24"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
       <c r="Q4" s="15"/>
       <c r="R4" s="15"/>
       <c r="S4" s="15"/>
       <c r="T4" s="15"/>
       <c r="U4" s="15"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="8"/>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="1"/>
       <c r="Z4" s="8"/>
       <c r="AA4" s="8"/>
-      <c r="AB4" s="9"/>
-    </row>
-    <row r="5" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1">
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
+      <c r="AE4" s="9"/>
+    </row>
+    <row r="5" spans="1:31" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="B5" s="24" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="24"/>
       <c r="D5" s="24" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E5" s="24"/>
       <c r="F5" s="24" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G5" s="24"/>
       <c r="H5" s="24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="12"/>
@@ -848,36 +944,39 @@
       <c r="L5" s="24"/>
       <c r="M5" s="24"/>
       <c r="N5" s="24"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
       <c r="Q5" s="15"/>
       <c r="R5" s="15"/>
       <c r="S5" s="15"/>
       <c r="T5" s="15"/>
       <c r="U5" s="15"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="8"/>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="1"/>
       <c r="Z5" s="8"/>
       <c r="AA5" s="8"/>
-      <c r="AB5" s="9"/>
-    </row>
-    <row r="6" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1">
+      <c r="AB5" s="15"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
+      <c r="AE5" s="9"/>
+    </row>
+    <row r="6" spans="1:31" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="B6" s="24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="24" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E6" s="24"/>
       <c r="F6" s="24" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G6" s="24"/>
       <c r="H6" s="24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="12"/>
@@ -885,36 +984,39 @@
       <c r="L6" s="24"/>
       <c r="M6" s="24"/>
       <c r="N6" s="24"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
       <c r="Q6" s="15"/>
       <c r="R6" s="15"/>
       <c r="S6" s="15"/>
       <c r="T6" s="15"/>
       <c r="U6" s="15"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="1"/>
       <c r="Z6" s="8"/>
       <c r="AA6" s="8"/>
-      <c r="AB6" s="9"/>
-    </row>
-    <row r="7" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1">
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
+      <c r="AE6" s="9"/>
+    </row>
+    <row r="7" spans="1:31" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="B7" s="24" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C7" s="24"/>
       <c r="D7" s="24" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E7" s="24"/>
       <c r="F7" s="24" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G7" s="24"/>
       <c r="H7" s="24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="12"/>
@@ -922,614 +1024,742 @@
       <c r="L7" s="24"/>
       <c r="M7" s="24"/>
       <c r="N7" s="24"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
       <c r="Q7" s="15"/>
       <c r="R7" s="15"/>
       <c r="S7" s="15"/>
       <c r="T7" s="15"/>
       <c r="U7" s="15"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="1"/>
       <c r="Z7" s="8"/>
       <c r="AA7" s="8"/>
-      <c r="AB7" s="9"/>
-    </row>
-    <row r="8" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B8" s="12"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="7"/>
+      <c r="AB7" s="15"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
+      <c r="AE7" s="9"/>
+    </row>
+    <row r="8" spans="1:31" s="3" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B8" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24" t="s">
+        <v>7</v>
+      </c>
       <c r="I8" s="7"/>
       <c r="J8" s="12"/>
       <c r="K8" s="24"/>
       <c r="L8" s="24"/>
       <c r="M8" s="24"/>
       <c r="N8" s="24"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
       <c r="T8" s="15"/>
       <c r="U8" s="15"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="15"/>
+      <c r="Y8" s="1"/>
       <c r="Z8" s="8"/>
       <c r="AA8" s="8"/>
-      <c r="AB8" s="9"/>
-    </row>
-    <row r="9" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B9" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
+      <c r="AB8" s="15"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
+      <c r="AE8" s="9"/>
+    </row>
+    <row r="9" spans="1:31" s="3" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B9" s="12"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="7"/>
       <c r="I9" s="7"/>
       <c r="J9" s="12"/>
       <c r="K9" s="24"/>
       <c r="L9" s="24"/>
       <c r="M9" s="24"/>
       <c r="N9" s="24"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
       <c r="Q9" s="15"/>
       <c r="R9" s="15"/>
       <c r="S9" s="15"/>
       <c r="T9" s="15"/>
       <c r="U9" s="15"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="8"/>
-      <c r="Y9" s="15"/>
+      <c r="V9" s="15"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="15"/>
+      <c r="Y9" s="1"/>
       <c r="Z9" s="8"/>
       <c r="AA9" s="8"/>
-      <c r="AB9" s="9"/>
-    </row>
-    <row r="10" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+      <c r="AB9" s="15"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
+      <c r="AE9" s="9"/>
+    </row>
+    <row r="10" spans="1:31" s="3" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B10" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
       <c r="I10" s="7"/>
       <c r="J10" s="12"/>
       <c r="K10" s="24"/>
       <c r="L10" s="24"/>
       <c r="M10" s="24"/>
       <c r="N10" s="24"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
       <c r="Q10" s="15"/>
       <c r="R10" s="15"/>
       <c r="S10" s="15"/>
       <c r="T10" s="15"/>
       <c r="U10" s="15"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="8"/>
-      <c r="Y10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="1"/>
       <c r="Z10" s="8"/>
       <c r="AA10" s="8"/>
-      <c r="AB10" s="9"/>
-    </row>
-    <row r="11" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B11" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24" t="s">
-        <v>19</v>
-      </c>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="9"/>
+    </row>
+    <row r="11" spans="1:31" s="3" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
       <c r="I11" s="7"/>
       <c r="J11" s="12"/>
       <c r="K11" s="24"/>
       <c r="L11" s="24"/>
       <c r="M11" s="24"/>
       <c r="N11" s="24"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="15"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
       <c r="Q11" s="15"/>
       <c r="R11" s="15"/>
       <c r="S11" s="15"/>
       <c r="T11" s="15"/>
       <c r="U11" s="15"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="8"/>
-      <c r="Y11" s="15"/>
+      <c r="V11" s="15"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="15"/>
+      <c r="Y11" s="1"/>
       <c r="Z11" s="8"/>
       <c r="AA11" s="8"/>
-      <c r="AB11" s="9"/>
-    </row>
-    <row r="12" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1">
+      <c r="AB11" s="15"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="9"/>
+    </row>
+    <row r="12" spans="1:31" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="B12" s="24" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C12" s="24"/>
       <c r="D12" s="24" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E12" s="24"/>
       <c r="F12" s="24" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G12" s="24"/>
       <c r="H12" s="24" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I12" s="7"/>
       <c r="J12" s="12"/>
       <c r="K12" s="24"/>
       <c r="L12" s="24"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
-      <c r="Y12" s="15"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="15"/>
+      <c r="Y12" s="1"/>
       <c r="Z12" s="8"/>
       <c r="AA12" s="8"/>
-      <c r="AB12" s="9"/>
-    </row>
-    <row r="13" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B13" s="24" t="s">
-        <v>23</v>
+      <c r="AB12" s="15"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="9"/>
+    </row>
+    <row r="13" spans="1:31" s="3" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B13" s="24">
+        <v>102</v>
       </c>
       <c r="C13" s="24"/>
-      <c r="D13" s="24" t="s">
-        <v>24</v>
+      <c r="D13" s="24">
+        <v>545760.84</v>
       </c>
       <c r="E13" s="24"/>
-      <c r="F13" s="24" t="s">
-        <v>25</v>
+      <c r="F13" s="24">
+        <v>75216.41</v>
       </c>
       <c r="G13" s="24"/>
-      <c r="H13" s="24" t="s">
-        <v>19</v>
+      <c r="H13" s="24">
+        <v>5216</v>
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="12"/>
       <c r="K13" s="24"/>
       <c r="L13" s="24"/>
-      <c r="T13" s="15"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="8"/>
-      <c r="Y13" s="15"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="15"/>
+      <c r="Y13" s="1"/>
       <c r="Z13" s="8"/>
       <c r="AA13" s="8"/>
-      <c r="AB13" s="9"/>
-    </row>
-    <row r="14" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B14" s="24" t="s">
-        <v>26</v>
+      <c r="AB13" s="15"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="9"/>
+    </row>
+    <row r="14" spans="1:31" s="3" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B14" s="24">
+        <v>103</v>
       </c>
       <c r="C14" s="24"/>
-      <c r="D14" s="24" t="s">
-        <v>27</v>
+      <c r="D14" s="24">
+        <v>545891.54</v>
       </c>
       <c r="E14" s="24"/>
-      <c r="F14" s="24" t="s">
-        <v>28</v>
+      <c r="F14" s="24">
+        <v>75740.490000000005</v>
       </c>
       <c r="G14" s="24"/>
-      <c r="H14" s="24" t="s">
-        <v>19</v>
+      <c r="H14" s="24">
+        <v>5216</v>
       </c>
       <c r="I14" s="7"/>
       <c r="J14" s="12"/>
       <c r="K14" s="24"/>
       <c r="L14" s="24"/>
-      <c r="T14" s="15"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="8"/>
-      <c r="X14" s="8"/>
-      <c r="Y14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="1"/>
       <c r="Z14" s="8"/>
       <c r="AA14" s="8"/>
-      <c r="AB14" s="9"/>
-    </row>
-    <row r="15" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B15" s="24" t="s">
-        <v>29</v>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="9"/>
+    </row>
+    <row r="15" spans="1:31" s="3" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B15" s="24">
+        <v>104</v>
       </c>
       <c r="C15" s="24"/>
-      <c r="D15" s="24" t="s">
-        <v>30</v>
+      <c r="D15" s="24">
+        <v>545883.68299999996</v>
       </c>
       <c r="E15" s="24"/>
-      <c r="F15" s="24" t="s">
-        <v>31</v>
+      <c r="F15" s="24">
+        <v>75762.956999999995</v>
       </c>
       <c r="G15" s="24"/>
-      <c r="H15" s="24" t="s">
-        <v>19</v>
+      <c r="H15" s="24">
+        <v>5216</v>
       </c>
       <c r="I15" s="14"/>
       <c r="J15" s="12"/>
       <c r="K15" s="24"/>
       <c r="L15" s="24"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="8"/>
-      <c r="X15" s="8"/>
-      <c r="Y15" s="15"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="1"/>
       <c r="Z15" s="8"/>
       <c r="AA15" s="8"/>
-      <c r="AB15" s="9"/>
-    </row>
-    <row r="16" spans="1:28" s="3" customFormat="1" ht="14.25" customHeight="1">
-      <c r="B16" s="24" t="s">
-        <v>32</v>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="9"/>
+    </row>
+    <row r="16" spans="1:31" s="3" customFormat="1" ht="14.25" customHeight="1">
+      <c r="B16" s="24">
+        <v>105</v>
       </c>
       <c r="C16" s="24"/>
-      <c r="D16" s="24" t="s">
-        <v>33</v>
+      <c r="D16" s="24">
+        <v>545903.88500000001</v>
       </c>
       <c r="E16" s="24"/>
-      <c r="F16" s="24" t="s">
-        <v>34</v>
+      <c r="F16" s="24">
+        <v>75767.578999999998</v>
       </c>
       <c r="G16" s="24"/>
-      <c r="H16" s="24" t="s">
-        <v>19</v>
+      <c r="H16" s="24">
+        <v>5216</v>
       </c>
       <c r="I16" s="14"/>
       <c r="J16" s="12"/>
       <c r="K16" s="24"/>
       <c r="L16" s="24"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="8"/>
-      <c r="X16" s="8"/>
-      <c r="Y16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="1"/>
       <c r="Z16" s="8"/>
       <c r="AA16" s="8"/>
-      <c r="AB16" s="9"/>
-    </row>
-    <row r="17" spans="2:28" ht="14.25" customHeight="1">
-      <c r="G17" s="13"/>
-      <c r="H17" s="7"/>
-    </row>
-    <row r="18" spans="2:28" ht="14.25" customHeight="1">
+      <c r="AB16" s="15"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="9"/>
+    </row>
+    <row r="17" spans="2:31" ht="14.25" customHeight="1">
+      <c r="B17" s="24">
+        <v>106</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24">
+        <v>545913.01</v>
+      </c>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24">
+        <v>75741.48</v>
+      </c>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24">
+        <v>5216</v>
+      </c>
+    </row>
+    <row r="18" spans="2:31" ht="14.25" customHeight="1">
+      <c r="B18" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>28</v>
+      </c>
       <c r="G18" s="13"/>
-      <c r="H18" s="7"/>
-    </row>
-    <row r="19" spans="2:28" ht="14.25" customHeight="1">
+      <c r="H18" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="2:31" ht="14.25" customHeight="1">
+      <c r="B19" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="G19" s="13"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="2:28" ht="14.25" customHeight="1">
+      <c r="H19" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:31" ht="14.25" customHeight="1">
       <c r="G20" s="13"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21" spans="2:28" ht="14.25" customHeight="1">
+    <row r="21" spans="2:31" ht="14.25" customHeight="1">
       <c r="G21" s="13"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22" spans="2:28" ht="14.25" customHeight="1">
-      <c r="B22" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="V22"/>
-      <c r="W22"/>
-      <c r="X22"/>
+    <row r="22" spans="2:31" ht="14.25" customHeight="1">
+      <c r="G22" s="13"/>
+      <c r="H22" s="7"/>
       <c r="Y22"/>
       <c r="Z22"/>
       <c r="AA22"/>
       <c r="AB22"/>
-    </row>
-    <row r="23" spans="2:28" ht="14.25" customHeight="1">
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="V23"/>
-      <c r="W23"/>
-      <c r="X23"/>
+      <c r="AC22"/>
+      <c r="AD22"/>
+      <c r="AE22"/>
+    </row>
+    <row r="23" spans="2:31" ht="14.25" customHeight="1">
+      <c r="B23" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
       <c r="Y23"/>
       <c r="Z23"/>
       <c r="AA23"/>
       <c r="AB23"/>
-    </row>
-    <row r="24" spans="2:28" ht="14.25" customHeight="1">
-      <c r="B24" s="12">
-        <v>2000</v>
-      </c>
+      <c r="AC23"/>
+      <c r="AD23"/>
+      <c r="AE23"/>
+    </row>
+    <row r="24" spans="2:31" ht="14.25" customHeight="1">
+      <c r="B24" s="21"/>
       <c r="C24" s="21"/>
-      <c r="D24" s="24" t="s">
-        <v>35</v>
-      </c>
+      <c r="D24" s="21"/>
       <c r="E24" s="21"/>
-      <c r="F24" s="24" t="s">
-        <v>36</v>
-      </c>
+      <c r="F24" s="21"/>
       <c r="G24" s="21"/>
-      <c r="H24" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="2:28" ht="14.25" customHeight="1">
-      <c r="B25" s="12">
-        <v>2001</v>
+      <c r="H24" s="21"/>
+    </row>
+    <row r="25" spans="2:31" ht="14.25" customHeight="1">
+      <c r="B25" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="C25" s="21"/>
       <c r="D25" s="24" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E25" s="21"/>
       <c r="F25" s="24" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G25" s="21"/>
       <c r="H25" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="2:28" ht="14.25" customHeight="1">
-      <c r="B26" s="12">
-        <v>2002</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="2:31" ht="14.25" customHeight="1">
+      <c r="B26" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E26" s="21"/>
       <c r="F26" s="24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G26" s="21"/>
       <c r="H26" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="2:28" ht="14.25" customHeight="1">
-      <c r="B27" s="12">
-        <v>2003</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:31" ht="14.25" customHeight="1">
+      <c r="B27" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="C27" s="21"/>
       <c r="D27" s="24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E27" s="21"/>
       <c r="F27" s="24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G27" s="21"/>
       <c r="H27" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="2:28" ht="14.25" customHeight="1">
-      <c r="B28" s="12">
-        <v>2004</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="2:31" ht="14.25" customHeight="1">
+      <c r="B28" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="C28" s="21"/>
       <c r="D28" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E28" s="21"/>
       <c r="F28" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G28" s="21"/>
       <c r="H28" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="2:28" ht="14.25" customHeight="1">
-      <c r="B29" s="12">
-        <v>2005</v>
-      </c>
-      <c r="C29" s="22"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="2:31" ht="14.25" customHeight="1">
+      <c r="B29" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="21"/>
       <c r="D29" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="22"/>
+      <c r="E29" s="21"/>
       <c r="F29" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="22"/>
+      <c r="G29" s="21"/>
       <c r="H29" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="2:28" ht="14.25" customHeight="1">
-      <c r="B30" s="12">
-        <v>2006</v>
-      </c>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="2:31" ht="14.25" customHeight="1">
+      <c r="B30" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="22"/>
       <c r="D30" s="24" t="s">
-        <v>47</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="E30" s="22"/>
       <c r="F30" s="24" t="s">
-        <v>48</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G30" s="22"/>
       <c r="H30" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="2:28" ht="14.25" customHeight="1">
-      <c r="B31" s="12">
-        <v>2007</v>
-      </c>
-      <c r="C31" s="23"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="2:31" ht="14.25" customHeight="1">
+      <c r="B31" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="D31" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E31" s="23"/>
+        <v>51</v>
+      </c>
       <c r="F31" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="G31" s="23"/>
+        <v>52</v>
+      </c>
       <c r="H31" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="2:28" ht="14.25" customHeight="1">
-      <c r="B32" s="12">
-        <v>2008</v>
-      </c>
-      <c r="C32" s="19"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="2:31" ht="14.25" customHeight="1">
+      <c r="B32" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="23"/>
       <c r="D32" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="E32" s="19"/>
+        <v>54</v>
+      </c>
+      <c r="E32" s="23"/>
       <c r="F32" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="G32" s="19"/>
+        <v>55</v>
+      </c>
+      <c r="G32" s="23"/>
       <c r="H32" s="7" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="14.25" customHeight="1">
-      <c r="B33" s="12">
-        <v>2009</v>
-      </c>
+      <c r="B33" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="19"/>
       <c r="D33" s="24" t="s">
-        <v>53</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E33" s="19"/>
       <c r="F33" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="G33" s="13"/>
+        <v>58</v>
+      </c>
+      <c r="G33" s="19"/>
       <c r="H33" s="7" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="14.25" customHeight="1">
-      <c r="B34" s="12">
-        <v>2010</v>
+      <c r="B34" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B35" s="12" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="35" spans="2:8" ht="14.25" customHeight="1">
-      <c r="B35" s="12">
-        <v>2011</v>
-      </c>
       <c r="D35" s="24" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G35" s="13"/>
       <c r="H35" s="7" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="14.25" customHeight="1">
-      <c r="B36" s="12">
-        <v>20004</v>
+      <c r="B36" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="D36" s="24" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G36" s="13"/>
       <c r="H36" s="7" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="14.25" customHeight="1">
-      <c r="B37" s="12">
-        <v>20011</v>
+      <c r="B37" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="D37" s="24" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="G37" s="13"/>
       <c r="H37" s="7" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="14.25" customHeight="1">
-      <c r="C38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="7"/>
+      <c r="B38" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="G38" s="13"/>
+      <c r="H38" s="7" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="39" spans="2:8" ht="14.25" customHeight="1">
-      <c r="C39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="7"/>
+      <c r="B39" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="20"/>
+      <c r="D39" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="20"/>
+      <c r="F39" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="G39" s="20"/>
+      <c r="H39" s="7" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="40" spans="2:8" ht="14.25" customHeight="1">
-      <c r="C40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="7"/>
+      <c r="B40" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="18"/>
+      <c r="D40" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" s="18"/>
+      <c r="F40" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G40" s="18"/>
+      <c r="H40" s="7" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="41" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B41" s="12" t="s">
+        <v>78</v>
+      </c>
       <c r="C41" s="17"/>
+      <c r="D41" s="13" t="s">
+        <v>79</v>
+      </c>
       <c r="E41" s="17"/>
+      <c r="F41" s="13" t="s">
+        <v>80</v>
+      </c>
       <c r="G41" s="17"/>
-      <c r="H41" s="7"/>
+      <c r="H41" s="7" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="42" spans="2:8" ht="14.25" customHeight="1">
+      <c r="B42" s="12" t="s">
+        <v>81</v>
+      </c>
       <c r="C42" s="17"/>
+      <c r="D42" s="13" t="s">
+        <v>82</v>
+      </c>
       <c r="E42" s="17"/>
+      <c r="F42" s="13" t="s">
+        <v>83</v>
+      </c>
       <c r="G42" s="17"/>
-      <c r="H42" s="7"/>
+      <c r="H42" s="7" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="43" spans="2:8" ht="14.25" customHeight="1">
-      <c r="H43" s="7"/>
+      <c r="B43" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="17"/>
+      <c r="D43" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E43" s="17"/>
+      <c r="F43" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G43" s="17"/>
+      <c r="H43" s="7" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="44" spans="2:8" ht="14.25" customHeight="1">
-      <c r="H44" s="7"/>
+      <c r="B44" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="45" spans="2:8" ht="14.25" customHeight="1">
-      <c r="H45" s="7"/>
+      <c r="B45" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="46" spans="2:8" ht="14.25" customHeight="1">
       <c r="H46" s="7"/>
@@ -1579,28 +1809,31 @@
     <row r="61" spans="8:8" ht="14.25" customHeight="1">
       <c r="H61" s="7"/>
     </row>
-    <row r="91" spans="23:23" ht="14.25" customHeight="1">
-      <c r="W91" s="1"/>
-    </row>
-    <row r="92" spans="23:23" ht="14.25" customHeight="1">
-      <c r="W92" s="1"/>
-    </row>
-    <row r="93" spans="23:23" ht="14.25" customHeight="1">
-      <c r="W93" s="1"/>
-    </row>
-    <row r="94" spans="23:23" ht="14.25" customHeight="1">
-      <c r="W94" s="1"/>
-    </row>
-    <row r="95" spans="23:23" ht="14.25" customHeight="1">
-      <c r="W95" s="1"/>
+    <row r="62" spans="8:8" ht="14.25" customHeight="1">
+      <c r="H62" s="7"/>
+    </row>
+    <row r="91" spans="26:26" ht="14.25" customHeight="1">
+      <c r="Z91" s="1"/>
+    </row>
+    <row r="92" spans="26:26" ht="14.25" customHeight="1">
+      <c r="Z92" s="1"/>
+    </row>
+    <row r="93" spans="26:26" ht="14.25" customHeight="1">
+      <c r="Z93" s="1"/>
+    </row>
+    <row r="94" spans="26:26" ht="14.25" customHeight="1">
+      <c r="Z94" s="1"/>
+    </row>
+    <row r="95" spans="26:26" ht="14.25" customHeight="1">
+      <c r="Z95" s="1"/>
     </row>
   </sheetData>
   <sortState ref="J5:M27">
     <sortCondition ref="J5"/>
   </sortState>
   <mergeCells count="3">
-    <mergeCell ref="B9:H9"/>
-    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B23:H23"/>
     <mergeCell ref="B3:H3"/>
   </mergeCells>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
